--- a/biology/Zoologie/Attila_à_croupion_jaune/Attila_à_croupion_jaune.xlsx
+++ b/biology/Zoologie/Attila_à_croupion_jaune/Attila_à_croupion_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Attila_%C3%A0_croupion_jaune</t>
+          <t>Attila_à_croupion_jaune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Attila spadiceus
 L’Attila à croupion jaune (Attila spadiceus) est une espèce de passereaux de la famille des Tyrannidae (Tyrannidés en français).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Attila_%C3%A0_croupion_jaune</t>
+          <t>Attila_à_croupion_jaune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'attila à croupion jaune a une calotte et la nuque vert grisâtre ou vert-olive parsemées de rayures sombres plus ou moins visibles. Certains individus ont des traces gris blanc sur le front. Les lores sont blanc grisâtre et la paupière inférieure est lignée de blanc. Les côtés de la tête sont similaires à la calotte mais sont lignées de blanc terne. Le dos, les scapulaires et la petite couverture sont brun rougeâtre ou vert grisâtre. Les plumes au-dessus de la queue sont de couleur cannelle léger sur le bas et jaune ocre sur le haut. La queue est brun grisâtre. Le menton est jaunâtre, la poitrine et ses côtés sont grisâtres rayés fortement de gris sombre. Les flancs sont jaunâtres ou cannelle, les sous-caudales et le dessous des ailes cannelle à blanc jaunâtre pâle. Les primaires sont noires tandis que les secondaires et les plumes intérieures sont margées de brun rougeâtre terne. Les moyenne et grande couvertures sont noires bordées de cannelle terne. Il mesure entre 17 et 18,5 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'attila à croupion jaune a une calotte et la nuque vert grisâtre ou vert-olive parsemées de rayures sombres plus ou moins visibles. Certains individus ont des traces gris blanc sur le front. Les lores sont blanc grisâtre et la paupière inférieure est lignée de blanc. Les côtés de la tête sont similaires à la calotte mais sont lignées de blanc terne. Le dos, les scapulaires et la petite couverture sont brun rougeâtre ou vert grisâtre. Les plumes au-dessus de la queue sont de couleur cannelle léger sur le bas et jaune ocre sur le haut. La queue est brun grisâtre. Le menton est jaunâtre, la poitrine et ses côtés sont grisâtres rayés fortement de gris sombre. Les flancs sont jaunâtres ou cannelle, les sous-caudales et le dessous des ailes cannelle à blanc jaunâtre pâle. Les primaires sont noires tandis que les secondaires et les plumes intérieures sont margées de brun rougeâtre terne. Les moyenne et grande couvertures sont noires bordées de cannelle terne. Il mesure entre 17 et 18,5 cm.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Attila_%C3%A0_croupion_jaune</t>
+          <t>Attila_à_croupion_jaune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'attila à croupion jaune se rencontre à l'ouest et au sud-est du Mexique (également dans la péninsule du Yucatan), au Belize, au nord et au sud du Guatemala,
-au nord-est du Honduras, au Nicaragua, au sud du Salvador, au Costa Rica, au Panama, au nord-ouest et à l'est de la Colombie, au Venezuela, à Trinité-et-Tobago, au Surinam, au Guyana, en Guyane, au nord-est du Pérou, à l'est de l'Equateur, au nord de la Bolivie ainsi qu'au nord-ouest du Brésil (présence isolée à l'est)[2].
+au nord-est du Honduras, au Nicaragua, au sud du Salvador, au Costa Rica, au Panama, au nord-ouest et à l'est de la Colombie, au Venezuela, à Trinité-et-Tobago, au Surinam, au Guyana, en Guyane, au nord-est du Pérou, à l'est de l'Equateur, au nord de la Bolivie ainsi qu'au nord-ouest du Brésil (présence isolée à l'est).
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Attila_%C3%A0_croupion_jaune</t>
+          <t>Attila_à_croupion_jaune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce fréquente les forêts humides et à forte croissance, les lisières et les clairières[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce fréquente les forêts humides et à forte croissance, les lisières et les clairières.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Attila_%C3%A0_croupion_jaune</t>
+          <t>Attila_à_croupion_jaune</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -614,7 +634,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Attila_%C3%A0_croupion_jaune</t>
+          <t>Attila_à_croupion_jaune</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -633,6 +653,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -640,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Attila_%C3%A0_croupion_jaune</t>
+          <t>Attila_à_croupion_jaune</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -658,7 +680,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des douze sous-espèces suivantes (ordre phylogénique) :
 Attila spadiceus pacificus Hellmayr, 1929 ;
